--- a/outputs-r202/test-f__Oscillospiraceae.xlsx
+++ b/outputs-r202/test-f__Oscillospiraceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>Row</t>
   </si>
@@ -256,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,14 +266,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,7 +292,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="15.5703125" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="15.7109375" customWidth="true"/>
@@ -343,3444 +347,3444 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397811102e-14</v>
       </c>
       <c r="C2">
-        <v>0.0033976484181600249</v>
+        <v>0.0011076143962588372</v>
       </c>
       <c r="D2">
-        <v>0.63175138081661508</v>
+        <v>0.9203518950924785</v>
       </c>
       <c r="E2">
-        <v>0.092850717186491988</v>
+        <v>0.026309542854271468</v>
       </c>
       <c r="F2">
-        <v>0.00046080381579052018</v>
+        <v>0.00019398802714656717</v>
       </c>
       <c r="G2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.951944039781095e-14</v>
       </c>
       <c r="H2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.951944039781095e-14</v>
       </c>
       <c r="I2">
-        <v>9.1793468166395252e-05</v>
+        <v>1.8219209490629552e-05</v>
       </c>
       <c r="J2">
-        <v>2.5044266970928494e-05</v>
+        <v>1.9163928446441172e-06</v>
       </c>
       <c r="K2">
-        <v>7.8805877773273346e-07</v>
+        <v>4.4877857987531438e-07</v>
       </c>
       <c r="L2">
-        <v>0.0003636338570561733</v>
+        <v>0.0001229151492900652</v>
       </c>
       <c r="M2">
-        <v>6.8616710992814066e-09</v>
+        <v>2.3288137902525967e-08</v>
       </c>
       <c r="N2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397811001e-14</v>
       </c>
       <c r="O2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397811026e-14</v>
       </c>
       <c r="P2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397811026e-14</v>
       </c>
       <c r="Q2">
-        <v>4.0324585179528078e-09</v>
+        <v>1.1021191351861721e-10</v>
       </c>
       <c r="R2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397811001e-14</v>
       </c>
       <c r="S2">
-        <v>1.1453635591856475e-11</v>
+        <v>6.4926116160614753e-12</v>
       </c>
       <c r="T2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810887e-14</v>
       </c>
       <c r="U2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810887e-14</v>
       </c>
       <c r="V2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810887e-14</v>
       </c>
       <c r="W2">
-        <v>7.9197632901454477e-08</v>
+        <v>6.5832509243827548e-09</v>
       </c>
       <c r="X2">
-        <v>1.2576847714129104e-13</v>
+        <v>5.9519440397810887e-14</v>
       </c>
       <c r="Y2">
-        <v>1.0313127175176075e-05</v>
+        <v>1.0315185510285923e-07</v>
       </c>
       <c r="Z2">
-        <v>1.2576847714128634e-13</v>
+        <v>5.9519440397810887e-14</v>
       </c>
       <c r="AA2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AB2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AC2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AD2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AE2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AF2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AG2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AH2">
-        <v>1.2576847714128629e-13</v>
+        <v>5.9519440397810837e-14</v>
       </c>
       <c r="AI2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810849e-14</v>
       </c>
       <c r="AJ2">
-        <v>0.26109606679899688</v>
+        <v>0.050288525587458943</v>
       </c>
       <c r="AK2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810849e-14</v>
       </c>
       <c r="AL2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397811001e-14</v>
       </c>
       <c r="AM2">
-        <v>0.0016807715604761277</v>
+        <v>2.8885095752701262e-05</v>
       </c>
       <c r="AN2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810912e-14</v>
       </c>
       <c r="AO2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810912e-14</v>
       </c>
       <c r="AP2">
-        <v>5.4112989878661015e-09</v>
+        <v>2.4085232263386773e-09</v>
       </c>
       <c r="AQ2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810912e-14</v>
       </c>
       <c r="AR2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810824e-14</v>
       </c>
       <c r="AS2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810912e-14</v>
       </c>
       <c r="AT2">
-        <v>0.0082706674409074015</v>
+        <v>0.0015758985556733687</v>
       </c>
       <c r="AU2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810912e-14</v>
       </c>
       <c r="AV2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810761e-14</v>
       </c>
       <c r="AW2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810761e-14</v>
       </c>
       <c r="AX2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810761e-14</v>
       </c>
       <c r="AY2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810761e-14</v>
       </c>
       <c r="AZ2">
-        <v>1.2576847714128632e-13</v>
+        <v>5.9519440397810824e-14</v>
       </c>
       <c r="BA2">
-        <v>2.7566562497407565e-07</v>
+        <v>1.5310259245648938e-08</v>
       </c>
       <c r="BB2">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.005818264208158e-13</v>
+        <v>4.2110543404397899e-14</v>
       </c>
       <c r="C3">
-        <v>0.0027826562506668238</v>
+        <v>0.00060508068225828082</v>
       </c>
       <c r="D3">
-        <v>0.65449969621908033</v>
+        <v>0.94571630163948195</v>
       </c>
       <c r="E3">
-        <v>0.19178560608907358</v>
+        <v>0.012966704095542358</v>
       </c>
       <c r="F3">
-        <v>0.00025139100646086679</v>
+        <v>0.00014848729020804007</v>
       </c>
       <c r="G3">
-        <v>1.005818264208158e-13</v>
+        <v>4.2110543404397874e-14</v>
       </c>
       <c r="H3">
-        <v>1.005818264208158e-13</v>
+        <v>4.2110543404397899e-14</v>
       </c>
       <c r="I3">
-        <v>4.1483929998623463e-05</v>
+        <v>1.3621280060581738e-05</v>
       </c>
       <c r="J3">
-        <v>5.274407619626965e-06</v>
+        <v>9.4979275197301074e-07</v>
       </c>
       <c r="K3">
-        <v>4.110190584753496e-07</v>
+        <v>3.1145861831278087e-07</v>
       </c>
       <c r="L3">
-        <v>0.00016903624167885148</v>
+        <v>7.620407190322791e-05</v>
       </c>
       <c r="M3">
-        <v>1.6103682982653344e-09</v>
+        <v>1.4040989892123672e-08</v>
       </c>
       <c r="N3">
-        <v>1.0058182642081569e-13</v>
+        <v>4.2110543404397906e-14</v>
       </c>
       <c r="O3">
-        <v>1.0058182642081569e-13</v>
+        <v>4.2110543404397906e-14</v>
       </c>
       <c r="P3">
-        <v>1.0058182642081569e-13</v>
+        <v>4.2110543404397906e-14</v>
       </c>
       <c r="Q3">
-        <v>5.25203838012077e-10</v>
+        <v>4.5855141159147886e-11</v>
       </c>
       <c r="R3">
-        <v>1.0058182642081569e-13</v>
+        <v>4.2110543404397906e-14</v>
       </c>
       <c r="S3">
-        <v>3.4105099697405093e-11</v>
+        <v>6.252725190309486e-12</v>
       </c>
       <c r="T3">
-        <v>1.0058182642081746e-13</v>
+        <v>4.2110543404397868e-14</v>
       </c>
       <c r="U3">
-        <v>1.0058182642081746e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="V3">
-        <v>1.0058182642081746e-13</v>
+        <v>4.2110543404397868e-14</v>
       </c>
       <c r="W3">
-        <v>4.6524275179316318e-08</v>
+        <v>4.0329741444121183e-09</v>
       </c>
       <c r="X3">
-        <v>1.0058182642081746e-13</v>
+        <v>4.2110543404397868e-14</v>
       </c>
       <c r="Y3">
-        <v>8.9259245937074367e-07</v>
+        <v>4.1417170877678435e-08</v>
       </c>
       <c r="Z3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AA3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AB3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AC3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AD3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AE3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AF3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AG3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AH3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AI3">
-        <v>1.0058182642081741e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AJ3">
-        <v>0.1484369130358712</v>
+        <v>0.039649237751032212</v>
       </c>
       <c r="AK3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AL3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AM3">
-        <v>2.6594551023819804e-05</v>
+        <v>1.0123623778930777e-05</v>
       </c>
       <c r="AN3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AO3">
-        <v>1.0058182642081741e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AP3">
-        <v>1.5931492881169209e-08</v>
+        <v>2.2718427894679799e-09</v>
       </c>
       <c r="AQ3">
-        <v>1.0058182642081741e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AR3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AS3">
-        <v>1.0058182642081741e-13</v>
+        <v>4.2110543404397754e-14</v>
       </c>
       <c r="AT3">
-        <v>0.0019996831177639856</v>
+        <v>0.00081291110149582274</v>
       </c>
       <c r="AU3">
-        <v>1.0058182642081741e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AV3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AW3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AX3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AY3">
-        <v>1.0058182642081734e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="AZ3">
-        <v>1.0058182642081739e-13</v>
+        <v>4.2110543404397811e-14</v>
       </c>
       <c r="BA3">
-        <v>2.9691037814321043e-07</v>
+        <v>5.3963522655641177e-09</v>
       </c>
       <c r="BB3">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7.9103386642848843e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="C4">
-        <v>0.97454867075013374</v>
+        <v>0.90003329894335482</v>
       </c>
       <c r="D4">
-        <v>0.021638963340192673</v>
+        <v>0.0081735097364446958</v>
       </c>
       <c r="E4">
-        <v>3.5388636531764025e-06</v>
+        <v>0.00029034618472538221</v>
       </c>
       <c r="F4">
-        <v>2.5198940421655492e-06</v>
+        <v>2.5738784036618099e-06</v>
       </c>
       <c r="G4">
-        <v>7.910338664284878e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="H4">
-        <v>7.910338664284878e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="I4">
-        <v>7.910338664284878e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="J4">
-        <v>0.00075078078958753407</v>
+        <v>0.0014495248864861534</v>
       </c>
       <c r="K4">
-        <v>0.00049233269602417726</v>
+        <v>1.2871953041584748e-05</v>
       </c>
       <c r="L4">
-        <v>2.8131150446572587e-10</v>
+        <v>8.0709976676126257e-07</v>
       </c>
       <c r="M4">
-        <v>7.9103386642848477e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="N4">
-        <v>7.9103386642848477e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="O4">
-        <v>7.9103386642848477e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="P4">
-        <v>7.9103386642848477e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="Q4">
-        <v>7.9103386642848477e-14</v>
+        <v>2.3639047823577021e-11</v>
       </c>
       <c r="R4">
-        <v>7.9103386642848477e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="S4">
-        <v>3.094139737503872e-12</v>
+        <v>2.6049822452223681e-12</v>
       </c>
       <c r="T4">
-        <v>7.9103386642859635e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="U4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="V4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="W4">
-        <v>7.9103386642870843e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="X4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="Y4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="Z4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AA4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AB4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AC4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AD4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AE4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AF4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AG4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AH4">
-        <v>7.9103386642859458e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AI4">
-        <v>7.9103386642859862e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AJ4">
-        <v>0.0020916599668783617</v>
+        <v>0.089825950174082958</v>
       </c>
       <c r="AK4">
-        <v>7.9103386642859862e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AL4">
-        <v>7.9103386642860089e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AM4">
-        <v>7.633980808894006e-08</v>
+        <v>9.4999678527393963e-12</v>
       </c>
       <c r="AN4">
-        <v>7.9103386642860089e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AO4">
-        <v>7.9103386642860038e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AP4">
-        <v>6.823420879441893e-12</v>
+        <v>1.0918122304191684e-12</v>
       </c>
       <c r="AQ4">
-        <v>7.9103386642860038e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AR4">
-        <v>7.9103386642859811e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AS4">
-        <v>7.9103386642860038e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AT4">
-        <v>4.6881936517559778e-07</v>
+        <v>1.7946551353533198e-06</v>
       </c>
       <c r="AU4">
-        <v>7.9103386642859862e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AV4">
-        <v>7.9103386642859811e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AW4">
-        <v>7.9103386642859811e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AX4">
-        <v>7.9103386642859811e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AY4">
-        <v>7.9103386642859811e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="AZ4">
-        <v>7.9103386642860038e-14</v>
+        <v>2.2203379086131276e-14</v>
       </c>
       <c r="BA4">
-        <v>0.00047098824600257534</v>
+        <v>0.00020932245087920283</v>
       </c>
       <c r="BB4">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="C5">
-        <v>1.227489396837299e-06</v>
+        <v>2.1968222430785612e-06</v>
       </c>
       <c r="D5">
-        <v>0.0053603924118361514</v>
+        <v>0.011880595628639369</v>
       </c>
       <c r="E5">
-        <v>0.035143931629155745</v>
+        <v>0.026805709555474184</v>
       </c>
       <c r="F5">
-        <v>0.00028179438095495295</v>
+        <v>0.0001465454080002938</v>
       </c>
       <c r="G5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="H5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="I5">
-        <v>0.00017220486948624669</v>
+        <v>0.00022137906854520446</v>
       </c>
       <c r="J5">
-        <v>2.5123275304761208e-06</v>
+        <v>2.489131735420712e-06</v>
       </c>
       <c r="K5">
-        <v>7.7262861624025412e-09</v>
+        <v>6.2167709421608095e-09</v>
       </c>
       <c r="L5">
-        <v>5.8520567700763388e-06</v>
+        <v>6.9979564498776892e-06</v>
       </c>
       <c r="M5">
-        <v>6.1648702415430499e-14</v>
+        <v>7.0753355828891231e-12</v>
       </c>
       <c r="N5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="O5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="P5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="Q5">
-        <v>1.5257483755061316e-12</v>
+        <v>8.6977569255391581e-13</v>
       </c>
       <c r="R5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="S5">
-        <v>8.1868105011411676e-11</v>
+        <v>6.7029338174489644e-12</v>
       </c>
       <c r="T5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="U5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="V5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="W5">
-        <v>8.3554076797136738e-07</v>
+        <v>1.0493728577991785e-06</v>
       </c>
       <c r="X5">
-        <v>4.4256054708547168e-12</v>
+        <v>3.4685227473938865e-12</v>
       </c>
       <c r="Y5">
-        <v>2.2610486645517627e-05</v>
+        <v>2.1495611443457755e-05</v>
       </c>
       <c r="Z5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AA5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AB5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AC5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AD5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AE5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AF5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AG5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AH5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AI5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AJ5">
-        <v>0.95855006452462921</v>
+        <v>0.95940412988265056</v>
       </c>
       <c r="AK5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AL5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AM5">
-        <v>0.0003884689081512545</v>
+        <v>0.0013579974919662207</v>
       </c>
       <c r="AN5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AO5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AP5">
-        <v>6.1198954409079908e-07</v>
+        <v>5.9658839995425751e-08</v>
       </c>
       <c r="AQ5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AR5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AS5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AT5">
-        <v>6.9095228455689914e-05</v>
+        <v>0.00014876442021333883</v>
       </c>
       <c r="AU5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AV5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AW5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AX5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AY5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="AZ5">
-        <v>2.220305245171588e-14</v>
+        <v>2.2204408100099792e-14</v>
       </c>
       <c r="BA5">
-        <v>3.9034177595861002e-07</v>
+        <v>5.8375532107353903e-07</v>
       </c>
       <c r="BB5">
         <v>35</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="C6">
-        <v>3.2456818359045617e-06</v>
+        <v>4.1098383876256588e-06</v>
       </c>
       <c r="D6">
-        <v>0.037855716476279833</v>
+        <v>0.014677180398628902</v>
       </c>
       <c r="E6">
-        <v>0.016144364932385118</v>
+        <v>0.027747919509200795</v>
       </c>
       <c r="F6">
-        <v>0.00012433094348695048</v>
+        <v>7.184562932739662e-05</v>
       </c>
       <c r="G6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="H6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="I6">
-        <v>4.0212270911279819e-05</v>
+        <v>0.00010187547308949544</v>
       </c>
       <c r="J6">
-        <v>4.8098128056061733e-07</v>
+        <v>1.4324899881910366e-06</v>
       </c>
       <c r="K6">
-        <v>6.1546092900324446e-09</v>
+        <v>5.9702245610934237e-09</v>
       </c>
       <c r="L6">
-        <v>3.4182211403384301e-06</v>
+        <v>6.9762236126834564e-06</v>
       </c>
       <c r="M6">
-        <v>1.3812384028929739e-12</v>
+        <v>4.2303124733290604e-11</v>
       </c>
       <c r="N6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="O6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="P6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="Q6">
-        <v>5.2063194862360414e-14</v>
+        <v>4.2335992683383845e-13</v>
       </c>
       <c r="R6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="S6">
-        <v>9.5574493431546942e-12</v>
+        <v>1.9086726113756932e-12</v>
       </c>
       <c r="T6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="U6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="V6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="W6">
-        <v>4.410956566371126e-08</v>
+        <v>1.7139250575502326e-07</v>
       </c>
       <c r="X6">
-        <v>2.2205907939659363e-14</v>
+        <v>1.2827760152167191e-13</v>
       </c>
       <c r="Y6">
-        <v>2.5132030788028789e-07</v>
+        <v>4.2620086526678775e-06</v>
       </c>
       <c r="Z6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AA6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AB6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AC6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AD6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AE6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AF6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AG6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AH6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AI6">
-        <v>0.006567629073647714</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AJ6">
-        <v>0.93921765814187042</v>
+        <v>0.95698319491175554</v>
       </c>
       <c r="AK6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AL6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AM6">
-        <v>1.7759422125633322e-06</v>
+        <v>0.00026695118988920242</v>
       </c>
       <c r="AN6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AO6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AP6">
-        <v>3.3331089065846675e-08</v>
+        <v>8.4477586834923831e-09</v>
       </c>
       <c r="AQ6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AR6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AS6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AT6">
-        <v>4.0817472412619554e-05</v>
+        <v>0.00013376527832906199</v>
       </c>
       <c r="AU6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AV6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AW6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AX6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AY6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="AZ6">
-        <v>2.2205907939659363e-14</v>
+        <v>2.2204729551389444e-14</v>
       </c>
       <c r="BA6">
-        <v>1.4935241356591135e-08</v>
+        <v>3.0119315314394511e-07</v>
       </c>
       <c r="BB6">
         <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="C7">
-        <v>0.91509702186158259</v>
+        <v>0.99516939113599778</v>
       </c>
       <c r="D7">
-        <v>0.0010041892672159479</v>
+        <v>0.0028438801450649006</v>
       </c>
       <c r="E7">
-        <v>0.083835904489775182</v>
+        <v>0.0019221998846958555</v>
       </c>
       <c r="F7">
-        <v>7.8849429148590783e-08</v>
+        <v>2.1742057087528215e-09</v>
       </c>
       <c r="G7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="H7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="I7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="J7">
-        <v>1.234154566540494e-05</v>
+        <v>1.9125902963038031e-05</v>
       </c>
       <c r="K7">
-        <v>2.3414832460907367e-06</v>
+        <v>4.4798680764167145e-05</v>
       </c>
       <c r="L7">
-        <v>3.8000478717195736e-08</v>
+        <v>3.2786643570884766e-11</v>
       </c>
       <c r="M7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="N7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="O7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="P7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="R7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="S7">
-        <v>2.8511600343953357e-12</v>
+        <v>8.6888308795736795e-12</v>
       </c>
       <c r="T7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="U7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="V7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="W7">
-        <v>4.3093028847214565e-11</v>
+        <v>2.8471550675457518e-12</v>
       </c>
       <c r="X7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AA7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AD7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AE7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AF7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AG7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AH7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AI7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AJ7">
-        <v>4.5768421348895146e-05</v>
+        <v>1.0870783273042419e-07</v>
       </c>
       <c r="AK7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AL7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AM7">
-        <v>2.0230339709251377e-10</v>
+        <v>4.2282474812227976e-09</v>
       </c>
       <c r="AN7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AO7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AP7">
-        <v>2.2920246285835734e-12</v>
+        <v>7.3747002376880093e-13</v>
       </c>
       <c r="AQ7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AR7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AS7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AT7">
-        <v>1.4233862139494675e-06</v>
+        <v>4.08534601352203e-07</v>
       </c>
       <c r="AU7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AV7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AW7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AX7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AY7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="AZ7">
-        <v>2.2202050667221573e-14</v>
+        <v>2.2202729350844515e-14</v>
       </c>
       <c r="BA7">
-        <v>8.9244366086105929e-07</v>
+        <v>8.0559723361811688e-08</v>
       </c>
       <c r="BB7">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.722533063709576e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="C8">
-        <v>0.97100499086686487</v>
+        <v>0.97980484962898085</v>
       </c>
       <c r="D8">
-        <v>0.0025403110033485276</v>
+        <v>0.0048042143458370858</v>
       </c>
       <c r="E8">
-        <v>0.00048964066387988288</v>
+        <v>2.5925929120764023e-05</v>
       </c>
       <c r="F8">
-        <v>0.0039492979842617095</v>
+        <v>0.0099884277437728656</v>
       </c>
       <c r="G8">
-        <v>4.722533063710139e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="H8">
-        <v>4.722533063710139e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="I8">
-        <v>0.0065455538105784125</v>
+        <v>0.00092240639761555514</v>
       </c>
       <c r="J8">
-        <v>2.5917693991321718e-05</v>
+        <v>4.5439704189918841e-06</v>
       </c>
       <c r="K8">
-        <v>1.5933474613516046e-07</v>
+        <v>9.0892564209441084e-08</v>
       </c>
       <c r="L8">
-        <v>7.668981140404577e-05</v>
+        <v>2.5938325854181147e-05</v>
       </c>
       <c r="M8">
-        <v>4.3994676641679847e-11</v>
+        <v>6.1189560325567693e-11</v>
       </c>
       <c r="N8">
-        <v>4.7225330637101283e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="O8">
-        <v>4.7225330637101415e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="P8">
-        <v>4.7225330637101415e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="Q8">
-        <v>4.2602406221792704e-07</v>
+        <v>8.7237676732943399e-08</v>
       </c>
       <c r="R8">
-        <v>4.7225330637101213e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="S8">
-        <v>7.880660525280854e-12</v>
+        <v>3.197805224705555e-12</v>
       </c>
       <c r="T8">
-        <v>4.7225330637101365e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="U8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="V8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="W8">
-        <v>3.0879386454990521e-07</v>
+        <v>6.8733610055607232e-09</v>
       </c>
       <c r="X8">
-        <v>8.5855353350237707e-11</v>
+        <v>6.1377766515641814e-13</v>
       </c>
       <c r="Y8">
-        <v>0.0004991075219286477</v>
+        <v>0.00014264445587173268</v>
       </c>
       <c r="Z8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AA8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AB8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AC8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AD8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AE8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AF8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AG8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AH8">
-        <v>4.7225330637101308e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AI8">
-        <v>4.7225330637101585e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AJ8">
-        <v>0.012721066882723637</v>
+        <v>0.0032985489307039606</v>
       </c>
       <c r="AK8">
-        <v>4.7225330637101604e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AL8">
-        <v>4.7225330637101604e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AM8">
-        <v>5.4690287753323803e-06</v>
+        <v>9.4712636198573189e-08</v>
       </c>
       <c r="AN8">
-        <v>4.7225330637101604e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AO8">
-        <v>4.7225330637101604e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AP8">
-        <v>1.5185247703109372e-09</v>
+        <v>1.1520648735326784e-10</v>
       </c>
       <c r="AQ8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AR8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AS8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AT8">
-        <v>0.0021409889787687639</v>
+        <v>0.00098221962051276497</v>
       </c>
       <c r="AU8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AV8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AW8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AX8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AY8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="AZ8">
-        <v>4.7225330637101573e-14</v>
+        <v>2.2203449020265957e-14</v>
       </c>
       <c r="BA8">
-        <v>6.9942989369449811e-08</v>
+        <v>7.5413263833833936e-10</v>
       </c>
       <c r="BB8">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="C9">
-        <v>8.3399456665684304e-05</v>
+        <v>0.00085245157399971262</v>
       </c>
       <c r="D9">
-        <v>0.00073215634273550564</v>
+        <v>0.00082724083398992966</v>
       </c>
       <c r="E9">
-        <v>0.015512629731243016</v>
+        <v>0.025532399592898148</v>
       </c>
       <c r="F9">
-        <v>1.9663584812349508e-05</v>
+        <v>1.1289778244478265e-05</v>
       </c>
       <c r="G9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="H9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="I9">
-        <v>8.5269125676725959e-08</v>
+        <v>4.2034106893339732e-09</v>
       </c>
       <c r="J9">
-        <v>0.0017185690359513728</v>
+        <v>0.00098780199081932628</v>
       </c>
       <c r="K9">
-        <v>6.9716347180504375e-07</v>
+        <v>6.6288015203412498e-07</v>
       </c>
       <c r="L9">
-        <v>0.00040190363643873321</v>
+        <v>0.00021462894481640721</v>
       </c>
       <c r="M9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.5922172868838872e-13</v>
       </c>
       <c r="N9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="O9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="P9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="Q9">
-        <v>2.5049267692016787e-07</v>
+        <v>8.1260407147936116e-09</v>
       </c>
       <c r="R9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="S9">
-        <v>5.1143902916108119e-11</v>
+        <v>1.8667544738076717e-12</v>
       </c>
       <c r="T9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="U9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="V9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="W9">
-        <v>8.5718086760999019e-12</v>
+        <v>2.230080438392326e-13</v>
       </c>
       <c r="X9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="Y9">
-        <v>4.4756363707989885e-07</v>
+        <v>1.5002362316180902e-08</v>
       </c>
       <c r="Z9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AA9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AB9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AC9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AD9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AE9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AF9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AG9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AH9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AI9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AJ9">
-        <v>0.98077716395782688</v>
+        <v>0.97125962091946239</v>
       </c>
       <c r="AK9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AL9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AM9">
-        <v>3.1635156230697633e-07</v>
+        <v>7.2068566276579658e-07</v>
       </c>
       <c r="AN9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AO9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AP9">
-        <v>1.9381015121152969e-10</v>
+        <v>1.0017627799765543e-11</v>
       </c>
       <c r="AQ9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AR9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AS9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AT9">
-        <v>9.2648113709923135e-05</v>
+        <v>0.0001021384658577929</v>
       </c>
       <c r="AU9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AV9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AW9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AX9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AY9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="AZ9">
-        <v>2.2203049288603503e-14</v>
+        <v>2.220266463376649e-14</v>
       </c>
       <c r="BA9">
-        <v>0.00066006904583980732</v>
+        <v>0.00021101698916169883</v>
       </c>
       <c r="BB9">
         <v>35</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.3110059346379746e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="C10">
-        <v>2.0081806839603537e-06</v>
+        <v>4.2854249439576911e-05</v>
       </c>
       <c r="D10">
-        <v>0.060232669138895148</v>
+        <v>0.023871054560041943</v>
       </c>
       <c r="E10">
-        <v>8.1686487257323604e-06</v>
+        <v>3.1946871054868515e-05</v>
       </c>
       <c r="F10">
-        <v>4.7699258517435945e-05</v>
+        <v>8.4379251727314991e-05</v>
       </c>
       <c r="G10">
-        <v>0.015282711997524739</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="H10">
-        <v>2.3110059346379749e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="I10">
-        <v>2.3110059346379749e-14</v>
+        <v>2.5986423271143653e-13</v>
       </c>
       <c r="J10">
-        <v>0.00057624204880299716</v>
+        <v>0.00039501371842172038</v>
       </c>
       <c r="K10">
-        <v>1.2636561061273369e-05</v>
+        <v>5.0249273927402647e-06</v>
       </c>
       <c r="L10">
-        <v>1.7961866767291571e-09</v>
+        <v>2.9587944241831952e-07</v>
       </c>
       <c r="M10">
-        <v>2.3110059346384019e-14</v>
+        <v>3.7366524791328806e-10</v>
       </c>
       <c r="N10">
-        <v>2.3110059346379718e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="O10">
-        <v>2.3110059346379718e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="P10">
-        <v>2.3110059346379718e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="Q10">
-        <v>2.3110059346379718e-14</v>
+        <v>8.9168595569059427e-13</v>
       </c>
       <c r="R10">
-        <v>2.3110059346379689e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="S10">
-        <v>1.0251293926360201e-10</v>
+        <v>1.0295112440827312e-11</v>
       </c>
       <c r="T10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="U10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="V10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="W10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="X10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="Y10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="Z10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AA10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AB10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AC10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AD10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AE10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AF10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AG10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AH10">
-        <v>2.3110059346379847e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AI10">
-        <v>2.3110059346379853e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AJ10">
-        <v>0.92383653437109603</v>
+        <v>0.97556208279530066</v>
       </c>
       <c r="AK10">
-        <v>2.3110059346379853e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AL10">
-        <v>2.3110059346379853e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AM10">
-        <v>3.6097233537699678e-08</v>
+        <v>3.0145379894802073e-08</v>
       </c>
       <c r="AN10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AO10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AP10">
-        <v>3.3427884547469477e-09</v>
+        <v>2.1811869914354326e-10</v>
       </c>
       <c r="AQ10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AR10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AS10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AT10">
-        <v>9.2390464175065728e-07</v>
+        <v>7.0947286064865991e-06</v>
       </c>
       <c r="AU10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AV10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AW10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AX10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AY10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="AZ10">
-        <v>2.311005934637986e-14</v>
+        <v>2.2202472724736781e-14</v>
       </c>
       <c r="BA10">
-        <v>3.6455045133951057e-07</v>
+        <v>2.2226916278852104e-07</v>
       </c>
       <c r="BB10">
         <v>35</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="C11">
-        <v>0.055248166929885038</v>
+        <v>0.0037992952623717661</v>
       </c>
       <c r="D11">
-        <v>0.00031875629788988703</v>
+        <v>0.00058586846321815049</v>
       </c>
       <c r="E11">
-        <v>1.1013947301977448e-06</v>
+        <v>3.1779764377634336e-07</v>
       </c>
       <c r="F11">
-        <v>0.001924103637845373</v>
+        <v>0.018590354592532131</v>
       </c>
       <c r="G11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="H11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="I11">
-        <v>1.5095536340498649e-06</v>
+        <v>4.3671521688262167e-06</v>
       </c>
       <c r="J11">
-        <v>3.3100670806579459e-06</v>
+        <v>1.1200124100282682e-06</v>
       </c>
       <c r="K11">
-        <v>2.9689641137134764e-08</v>
+        <v>9.8536566944075227e-08</v>
       </c>
       <c r="L11">
-        <v>8.8944181480071626e-06</v>
+        <v>8.9627707997001122e-06</v>
       </c>
       <c r="M11">
-        <v>1.0699343915274988e-10</v>
+        <v>3.9518665551605471e-08</v>
       </c>
       <c r="N11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="O11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="P11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="Q11">
-        <v>7.4794324961579802e-09</v>
+        <v>3.9162933704382459e-09</v>
       </c>
       <c r="R11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="S11">
-        <v>5.0237590197884659e-12</v>
+        <v>4.8970632580173763e-11</v>
       </c>
       <c r="T11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="U11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="V11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="W11">
-        <v>2.7511096629842189e-10</v>
+        <v>1.9938996464277934e-09</v>
       </c>
       <c r="X11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="Y11">
-        <v>4.463905724545421e-05</v>
+        <v>0.00027749333167922111</v>
       </c>
       <c r="Z11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AA11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AB11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AC11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AD11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AE11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AF11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AG11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AH11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AI11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AJ11">
-        <v>0.9421776492064271</v>
+        <v>0.97641813644717068</v>
       </c>
       <c r="AK11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AL11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AM11">
-        <v>7.0183298887864114e-08</v>
+        <v>3.9298353058182494e-09</v>
       </c>
       <c r="AN11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AO11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AP11">
-        <v>1.6064552634749002e-10</v>
+        <v>6.1298767751483229e-10</v>
       </c>
       <c r="AQ11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AR11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AS11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AT11">
-        <v>0.00027176145610868996</v>
+        <v>0.00031393558577561562</v>
       </c>
       <c r="AU11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AV11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AW11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AX11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AY11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="AZ11">
-        <v>2.2201914902741615e-14</v>
+        <v>2.2203205023971261e-14</v>
       </c>
       <c r="BA11">
-        <v>8.0104592308297337e-11</v>
+        <v>2.6256153978586234e-11</v>
       </c>
       <c r="BB11">
         <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="C12">
-        <v>1.7482726673113328e-06</v>
+        <v>2.6996424673099928e-06</v>
       </c>
       <c r="D12">
-        <v>0.036553930974915966</v>
+        <v>0.025866377657808484</v>
       </c>
       <c r="E12">
-        <v>0.020411819713910977</v>
+        <v>0.026376152968981399</v>
       </c>
       <c r="F12">
-        <v>4.7701079454300943e-05</v>
+        <v>5.999170611114599e-05</v>
       </c>
       <c r="G12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="H12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="I12">
-        <v>7.4762168188739384e-06</v>
+        <v>5.8920425542775136e-05</v>
       </c>
       <c r="J12">
-        <v>3.1299763019892086e-07</v>
+        <v>7.3043506019942136e-07</v>
       </c>
       <c r="K12">
-        <v>8.6436169680024865e-09</v>
+        <v>5.6371708089120027e-09</v>
       </c>
       <c r="L12">
-        <v>2.2558957733786666e-06</v>
+        <v>4.9924478563982857e-06</v>
       </c>
       <c r="M12">
-        <v>2.3586350973926257e-13</v>
+        <v>6.9843652701372856e-12</v>
       </c>
       <c r="N12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="O12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="P12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="Q12">
-        <v>2.2206516770203632e-14</v>
+        <v>1.1022817062260807e-13</v>
       </c>
       <c r="R12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="S12">
-        <v>5.8981302734563939e-12</v>
+        <v>2.8645352617357161e-12</v>
       </c>
       <c r="T12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="U12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="V12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="W12">
-        <v>4.3182153300102228e-09</v>
+        <v>5.2649981908708601e-08</v>
       </c>
       <c r="X12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="Y12">
-        <v>1.7232268633220683e-08</v>
+        <v>8.2834810725537905e-07</v>
       </c>
       <c r="Z12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AA12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AB12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AC12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AD12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AE12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AF12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AG12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AH12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AI12">
-        <v>0.0064382163333205301</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AJ12">
-        <v>0.93650678042533309</v>
+        <v>0.94753231639703461</v>
       </c>
       <c r="AK12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AL12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AM12">
-        <v>2.0850751209414062e-07</v>
+        <v>2.7520265058708896e-05</v>
       </c>
       <c r="AN12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AO12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AP12">
-        <v>8.8881551762300153e-09</v>
+        <v>1.004487702864905e-08</v>
       </c>
       <c r="AQ12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AR12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AS12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AT12">
-        <v>2.9501307010528356e-05</v>
+        <v>6.9317769589091836e-05</v>
       </c>
       <c r="AU12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AV12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AW12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AX12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AY12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="AZ12">
-        <v>2.2206516770203632e-14</v>
+        <v>2.2205819636211204e-14</v>
       </c>
       <c r="BA12">
-        <v>9.1865076152498737e-09</v>
+        <v>8.3593638825898666e-08</v>
       </c>
       <c r="BB12">
         <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="C13">
-        <v>8.5784489585697193e-06</v>
+        <v>5.0742540110878331e-06</v>
       </c>
       <c r="D13">
-        <v>0.020690903789399535</v>
+        <v>0.017502952370977345</v>
       </c>
       <c r="E13">
-        <v>0.0006318090685714017</v>
+        <v>0.00070984641545894284</v>
       </c>
       <c r="F13">
-        <v>0.00020679996531154248</v>
+        <v>0.00021455759638499633</v>
       </c>
       <c r="G13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="H13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="I13">
-        <v>2.4763514547495392e-09</v>
+        <v>5.6619108718701651e-09</v>
       </c>
       <c r="J13">
-        <v>0.0018539901113772985</v>
+        <v>0.0018215183650280378</v>
       </c>
       <c r="K13">
-        <v>1.3616645750649286e-06</v>
+        <v>2.283384404109087e-06</v>
       </c>
       <c r="L13">
-        <v>0.00015969888185020292</v>
+        <v>0.00039282765886723659</v>
       </c>
       <c r="M13">
-        <v>2.1202458152144852e-10</v>
+        <v>5.3447934390853605e-09</v>
       </c>
       <c r="N13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="O13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="P13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="Q13">
-        <v>1.4137313008834405e-08</v>
+        <v>2.2682183122718689e-08</v>
       </c>
       <c r="R13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="S13">
-        <v>3.359565713705201e-13</v>
+        <v>8.216765540899553e-14</v>
       </c>
       <c r="T13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="U13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="V13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="W13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="X13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="Y13">
-        <v>7.1530500539971056e-08</v>
+        <v>1.403281067962377e-07</v>
       </c>
       <c r="Z13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AA13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AB13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AC13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AD13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AE13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AF13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AG13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AH13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AI13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AJ13">
-        <v>0.97325080858012258</v>
+        <v>0.96616655781749905</v>
       </c>
       <c r="AK13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AL13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AM13">
-        <v>0.0021098444173200176</v>
+        <v>0.0080716772883310858</v>
       </c>
       <c r="AN13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AO13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AP13">
-        <v>1.0936719943167163e-12</v>
+        <v>3.8871016782517331e-13</v>
       </c>
       <c r="AQ13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AR13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AS13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AT13">
-        <v>0.0010860883239860099</v>
+        <v>0.0051124746525185137</v>
       </c>
       <c r="AU13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AV13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AW13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AX13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AY13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="AZ13">
-        <v>2.2203289133346243e-14</v>
+        <v>2.2204619007656779e-14</v>
       </c>
       <c r="BA13">
-        <v>2.8390131550924887e-08</v>
+        <v>5.6178277257972256e-08</v>
       </c>
       <c r="BB13">
         <v>35</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="C14">
-        <v>8.8527878998585547e-10</v>
+        <v>7.5046383903850175e-11</v>
       </c>
       <c r="D14">
-        <v>0.0078765783991363216</v>
+        <v>0.0037664086444640955</v>
       </c>
       <c r="E14">
-        <v>1.0435646985199919e-06</v>
+        <v>1.5372057822106399e-07</v>
       </c>
       <c r="F14">
-        <v>3.4410793735578475e-09</v>
+        <v>1.0926751670847187e-10</v>
       </c>
       <c r="G14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="H14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="I14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="J14">
-        <v>1.0296843186705028e-08</v>
+        <v>4.0157360754406244e-08</v>
       </c>
       <c r="K14">
-        <v>0.0035082106768358238</v>
+        <v>0.0096332380891669591</v>
       </c>
       <c r="L14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="M14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="N14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="O14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="P14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="Q14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="R14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="S14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="T14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="U14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="V14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="W14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="X14">
-        <v>3.3633892169470378e-09</v>
+        <v>0.00039085457199418048</v>
       </c>
       <c r="Y14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="Z14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AA14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AB14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AC14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AD14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AE14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AF14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AG14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AH14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AI14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AJ14">
-        <v>0.95883200229724019</v>
+        <v>0.97021182039050569</v>
       </c>
       <c r="AK14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AL14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AM14">
-        <v>1.0965804070703986e-12</v>
+        <v>2.5298790978724312e-06</v>
       </c>
       <c r="AN14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AO14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AP14">
-        <v>3.4602641767394399e-13</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AQ14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AR14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AS14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AT14">
-        <v>3.3923290172773723e-08</v>
+        <v>2.1211181175025801e-08</v>
       </c>
       <c r="AU14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AV14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AW14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AX14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AY14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="AZ14">
-        <v>2.2204000398092653e-14</v>
+        <v>2.2204360109682618e-14</v>
       </c>
       <c r="BA14">
-        <v>0.02978211314987762</v>
+        <v>0.015994933150426795</v>
       </c>
       <c r="BB14">
         <v>35</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="C15">
-        <v>1.8254466433411601e-06</v>
+        <v>3.5741692314253006e-06</v>
       </c>
       <c r="D15">
-        <v>0.02488202219565086</v>
+        <v>0.015214765637085429</v>
       </c>
       <c r="E15">
-        <v>0.036930398493904504</v>
+        <v>0.027836205303413252</v>
       </c>
       <c r="F15">
-        <v>3.9132977146871837e-05</v>
+        <v>7.1406744523011426e-05</v>
       </c>
       <c r="G15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="H15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="I15">
-        <v>1.0338833432572594e-05</v>
+        <v>9.4358445682303908e-05</v>
       </c>
       <c r="J15">
-        <v>2.8159807584188488e-07</v>
+        <v>1.1381951804032589e-06</v>
       </c>
       <c r="K15">
-        <v>7.9081353472290704e-09</v>
+        <v>5.4137782636681713e-09</v>
       </c>
       <c r="L15">
-        <v>2.7059989724367244e-06</v>
+        <v>6.0176416710366332e-06</v>
       </c>
       <c r="M15">
-        <v>2.0832328384075837e-13</v>
+        <v>1.2760405257348255e-11</v>
       </c>
       <c r="N15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="O15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="P15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="Q15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.492340610152981e-13</v>
       </c>
       <c r="R15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="S15">
-        <v>7.6359368779358353e-12</v>
+        <v>2.9307829563926851e-12</v>
       </c>
       <c r="T15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="U15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="V15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="W15">
-        <v>9.7361673257328732e-09</v>
+        <v>1.378062959162476e-07</v>
       </c>
       <c r="X15">
-        <v>2.2207105380033821e-14</v>
+        <v>7.1636233252375083e-14</v>
       </c>
       <c r="Y15">
-        <v>3.3929741497760083e-08</v>
+        <v>3.118356830705683e-06</v>
       </c>
       <c r="Z15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AA15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AB15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AC15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AD15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AE15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AF15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AG15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AH15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AI15">
-        <v>0.0064267171704772766</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AJ15">
-        <v>0.93167133247050227</v>
+        <v>0.95654303041017874</v>
       </c>
       <c r="AK15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AL15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AM15">
-        <v>1.2550248476376994e-06</v>
+        <v>0.00012586706890022666</v>
       </c>
       <c r="AN15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AO15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AP15">
-        <v>2.0914835196422357e-08</v>
+        <v>1.4176088778628163e-08</v>
       </c>
       <c r="AQ15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AR15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AS15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AT15">
-        <v>3.389130569552049e-05</v>
+        <v>0.00010016048631181764</v>
       </c>
       <c r="AU15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AV15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AW15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AX15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AY15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="AZ15">
-        <v>2.2207105380033821e-14</v>
+        <v>2.2204779928466049e-14</v>
       </c>
       <c r="BA15">
-        <v>2.5987172326194027e-08</v>
+        <v>2.0012808382372357e-07</v>
       </c>
       <c r="BB15">
         <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="C16">
-        <v>0.010247968537219749</v>
+        <v>0.0041401069883707092</v>
       </c>
       <c r="D16">
-        <v>0.0058272634964334977</v>
+        <v>0.0096206046235579271</v>
       </c>
       <c r="E16">
-        <v>0.00041918133561810668</v>
+        <v>0.00012393441081139518</v>
       </c>
       <c r="F16">
-        <v>0.00096318852235519081</v>
+        <v>0.0018287286787052489</v>
       </c>
       <c r="G16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="H16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="I16">
-        <v>1.1786751983513591e-08</v>
+        <v>1.8461193949495582e-08</v>
       </c>
       <c r="J16">
-        <v>0.00074613982194518004</v>
+        <v>0.0004468062185564228</v>
       </c>
       <c r="K16">
-        <v>6.8113648834094309e-07</v>
+        <v>6.7164957476212848e-07</v>
       </c>
       <c r="L16">
-        <v>3.8818338538625857e-05</v>
+        <v>3.8677125473133215e-05</v>
       </c>
       <c r="M16">
-        <v>1.4151326932655931e-08</v>
+        <v>3.4740402447161388e-06</v>
       </c>
       <c r="N16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="O16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="P16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="Q16">
-        <v>1.8058199072888981e-08</v>
+        <v>9.8439649038790559e-09</v>
       </c>
       <c r="R16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="S16">
-        <v>5.7993277401292788e-13</v>
+        <v>4.0216550034756547e-13</v>
       </c>
       <c r="T16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="U16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="V16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="W16">
-        <v>1.5254666736140042e-13</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="X16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="Y16">
-        <v>2.1146038035318569e-08</v>
+        <v>3.7816985797559644e-08</v>
       </c>
       <c r="Z16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AA16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AB16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AC16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AD16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AE16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AF16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AG16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AH16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AI16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AJ16">
-        <v>0.98127004674642027</v>
+        <v>0.98268487334142673</v>
       </c>
       <c r="AK16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AL16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AM16">
-        <v>2.3171002744969351e-05</v>
+        <v>7.6624727559938081e-05</v>
       </c>
       <c r="AN16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AO16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AP16">
-        <v>5.3653624663442677e-13</v>
+        <v>4.4154627853763554e-13</v>
       </c>
       <c r="AQ16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AR16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AS16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AT16">
-        <v>0.00046346280481345979</v>
+        <v>0.0010354306976875093</v>
       </c>
       <c r="AU16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AV16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AW16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AX16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AY16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="AZ16">
-        <v>2.2203721242637542e-14</v>
+        <v>2.2203656886800398e-14</v>
       </c>
       <c r="BA16">
-        <v>1.311308279769966e-08</v>
+        <v>1.3742660202091635e-09</v>
       </c>
       <c r="BB16">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="C17">
-        <v>2.3225792560105566e-05</v>
+        <v>8.5229736559164619e-05</v>
       </c>
       <c r="D17">
-        <v>0.0026965761238158027</v>
+        <v>0.0028903018729313878</v>
       </c>
       <c r="E17">
-        <v>1.2490066582075296e-05</v>
+        <v>2.1037235539077509e-05</v>
       </c>
       <c r="F17">
-        <v>3.2807673425572785e-06</v>
+        <v>1.4078396734734659e-06</v>
       </c>
       <c r="G17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="H17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="I17">
-        <v>6.111003502863925e-13</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="J17">
-        <v>0.00029567435416477601</v>
+        <v>0.00019350952786990818</v>
       </c>
       <c r="K17">
-        <v>1.9747750569441316e-06</v>
+        <v>1.0250384232835392e-05</v>
       </c>
       <c r="L17">
-        <v>1.0901769537912955e-05</v>
+        <v>5.1578872944448984e-07</v>
       </c>
       <c r="M17">
-        <v>1.6978722138622733e-12</v>
+        <v>1.2605343006493303e-12</v>
       </c>
       <c r="N17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="O17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="P17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="Q17">
-        <v>4.3929219994018028e-09</v>
+        <v>5.0661963907513597e-12</v>
       </c>
       <c r="R17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="S17">
-        <v>2.2373099622664447e-11</v>
+        <v>2.9312356387514066e-12</v>
       </c>
       <c r="T17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="U17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="V17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="W17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="X17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="Y17">
-        <v>1.7150304120484535e-11</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="Z17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AA17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AB17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AC17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AD17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AE17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AF17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AG17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AH17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AI17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AJ17">
-        <v>0.98533744783595689</v>
+        <v>0.99068206144982296</v>
       </c>
       <c r="AK17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AL17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AM17">
-        <v>2.220299011294322e-14</v>
+        <v>3.3830260823052799e-13</v>
       </c>
       <c r="AN17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AO17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AP17">
-        <v>1.3582847788546058e-11</v>
+        <v>5.9420422118989168e-12</v>
       </c>
       <c r="AQ17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AR17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AS17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AT17">
-        <v>3.0189245779184468e-06</v>
+        <v>1.0741353841651865e-06</v>
       </c>
       <c r="AU17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AV17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AW17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AX17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AY17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="AZ17">
-        <v>2.220299011294322e-14</v>
+        <v>2.220245101799789e-14</v>
       </c>
       <c r="BA17">
-        <v>0.011615405141268348</v>
+        <v>0.0061146120128977282</v>
       </c>
       <c r="BB17">
         <v>35</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="C18">
-        <v>1.32599255861525e-06</v>
+        <v>1.5879312400848379e-06</v>
       </c>
       <c r="D18">
-        <v>0.038667616696759131</v>
+        <v>0.046306274667032736</v>
       </c>
       <c r="E18">
-        <v>0.030523221373409529</v>
+        <v>0.02434189181425617</v>
       </c>
       <c r="F18">
-        <v>5.118023186216101e-05</v>
+        <v>4.4591730934467744e-05</v>
       </c>
       <c r="G18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="H18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="I18">
-        <v>1.209096223358555e-05</v>
+        <v>2.0452772427061169e-05</v>
       </c>
       <c r="J18">
-        <v>2.0738210647072216e-07</v>
+        <v>4.6633442021853081e-07</v>
       </c>
       <c r="K18">
-        <v>6.9013102716432921e-09</v>
+        <v>6.9793508413324882e-09</v>
       </c>
       <c r="L18">
-        <v>1.9886103130521941e-06</v>
+        <v>3.7235241811853172e-06</v>
       </c>
       <c r="M18">
-        <v>8.2610064274044108e-14</v>
+        <v>1.9286948564273217e-12</v>
       </c>
       <c r="N18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="O18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="P18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="Q18">
-        <v>2.2207950667431108e-14</v>
+        <v>4.6419166892362767e-14</v>
       </c>
       <c r="R18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="S18">
-        <v>1.1113876982880867e-11</v>
+        <v>3.2994430204645263e-12</v>
       </c>
       <c r="T18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="U18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="V18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="W18">
-        <v>1.0590249879072868e-08</v>
+        <v>1.276235100447647e-08</v>
       </c>
       <c r="X18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="Y18">
-        <v>1.5351012976400008e-08</v>
+        <v>1.0271211080441445e-07</v>
       </c>
       <c r="Z18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AA18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AB18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AC18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AD18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AE18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AF18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AG18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AH18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AI18">
-        <v>0.0063655297087450964</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AJ18">
-        <v>0.92435118531078098</v>
+        <v>0.92923389224772646</v>
       </c>
       <c r="AK18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AL18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AM18">
-        <v>1.3409545136313603e-07</v>
+        <v>3.6294395589779784e-06</v>
       </c>
       <c r="AN18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AO18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AP18">
-        <v>2.8301103638893198e-08</v>
+        <v>6.8614535636198167e-09</v>
       </c>
       <c r="AQ18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AR18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AS18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AT18">
-        <v>2.5451719374441391e-05</v>
+        <v>4.3330893147170439e-05</v>
       </c>
       <c r="AU18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AV18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AW18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AX18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AY18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="AZ18">
-        <v>2.2207950667431108e-14</v>
+        <v>2.2206557691122846e-14</v>
       </c>
       <c r="BA18">
-        <v>6.7607771397106146e-09</v>
+        <v>2.9323779607464072e-08</v>
       </c>
       <c r="BB18">
         <v>35</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="C19">
-        <v>2.2298782147515888e-05</v>
+        <v>1.3639048166975495e-05</v>
       </c>
       <c r="D19">
-        <v>0.014987402899657281</v>
+        <v>0.013160322317756464</v>
       </c>
       <c r="E19">
-        <v>0.014558947437514133</v>
+        <v>0.015950950682719085</v>
       </c>
       <c r="F19">
-        <v>8.2934561271720753e-05</v>
+        <v>4.584705640346638e-05</v>
       </c>
       <c r="G19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="H19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="I19">
-        <v>1.1150268470693736e-07</v>
+        <v>2.5516114114624339e-07</v>
       </c>
       <c r="J19">
-        <v>0.00055866672126381027</v>
+        <v>0.00023608716926067533</v>
       </c>
       <c r="K19">
-        <v>2.27267306241628e-06</v>
+        <v>1.6629133087509269e-06</v>
       </c>
       <c r="L19">
-        <v>0.0001835326339642973</v>
+        <v>0.00016784968150345434</v>
       </c>
       <c r="M19">
-        <v>4.2231587131029346e-07</v>
+        <v>6.3333511873281908e-06</v>
       </c>
       <c r="N19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="O19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="P19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="Q19">
-        <v>2.6919563779942562e-07</v>
+        <v>2.2084103089929479e-07</v>
       </c>
       <c r="R19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="S19">
-        <v>1.394803439881639e-13</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="T19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="U19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="V19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="W19">
-        <v>1.5635474520371886e-12</v>
+        <v>1.5202822929264475e-11</v>
       </c>
       <c r="X19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="Y19">
-        <v>8.0007448996341596e-08</v>
+        <v>1.7576396232960316e-07</v>
       </c>
       <c r="Z19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AA19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AB19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AC19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AD19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AE19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AF19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AG19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AH19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AI19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AJ19">
-        <v>0.96534951816218584</v>
+        <v>0.95516166429551452</v>
       </c>
       <c r="AK19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AL19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AM19">
-        <v>3.2337183814391001e-05</v>
+        <v>0.00015670476046209615</v>
       </c>
       <c r="AN19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AO19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AP19">
-        <v>6.4698644383106725e-13</v>
+        <v>4.051867007537881e-13</v>
       </c>
       <c r="AQ19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AR19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AS19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AT19">
-        <v>0.0042187822493836204</v>
+        <v>0.015095970976359676</v>
       </c>
       <c r="AU19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AV19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AW19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AX19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AY19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="AZ19">
-        <v>2.2204738301068788e-14</v>
+        <v>2.2205840672907653e-14</v>
       </c>
       <c r="BA19">
-        <v>2.4236709872303812e-06</v>
+        <v>2.3159648379195641e-06</v>
       </c>
       <c r="BB19">
         <v>35</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="C20">
-        <v>1.7961291641336594e-06</v>
+        <v>1.6935596911546841e-06</v>
       </c>
       <c r="D20">
-        <v>0.030682113789573657</v>
+        <v>0.044906931048986985</v>
       </c>
       <c r="E20">
-        <v>0.019081407314762523</v>
+        <v>0.020414752458084984</v>
       </c>
       <c r="F20">
-        <v>5.3002203878026798e-05</v>
+        <v>5.1570062101800172e-05</v>
       </c>
       <c r="G20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="H20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="I20">
-        <v>1.4588002876994868e-05</v>
+        <v>2.8388341768893629e-05</v>
       </c>
       <c r="J20">
-        <v>5.1790844553927875e-07</v>
+        <v>5.6361405299204068e-07</v>
       </c>
       <c r="K20">
-        <v>7.5860435142077715e-09</v>
+        <v>6.8069830275695532e-09</v>
       </c>
       <c r="L20">
-        <v>3.2729585197241342e-06</v>
+        <v>4.3568668406225613e-06</v>
       </c>
       <c r="M20">
-        <v>5.4173957178214961e-13</v>
+        <v>3.2609980231970128e-12</v>
       </c>
       <c r="N20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="O20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="P20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="Q20">
-        <v>1.3467423652466575e-13</v>
+        <v>7.9696287501386193e-14</v>
       </c>
       <c r="R20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="S20">
-        <v>5.9359544587459568e-12</v>
+        <v>3.1596922066113504e-12</v>
       </c>
       <c r="T20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="U20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="V20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="W20">
-        <v>1.4569237674879815e-08</v>
+        <v>1.9990732285217405e-08</v>
       </c>
       <c r="X20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="Y20">
-        <v>1.7619328814818861e-07</v>
+        <v>2.5717535204750876e-07</v>
       </c>
       <c r="Z20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AA20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AB20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AC20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AD20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AE20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AF20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AG20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AH20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AI20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AJ20">
-        <v>0.95011639374733436</v>
+        <v>0.93453122212550732</v>
       </c>
       <c r="AK20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AL20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AM20">
-        <v>3.0746033155700642e-06</v>
+        <v>8.2330591527611794e-06</v>
       </c>
       <c r="AN20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AO20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AP20">
-        <v>1.6049766812989753e-08</v>
+        <v>7.9656242959143095e-09</v>
       </c>
       <c r="AQ20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AR20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AS20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AT20">
-        <v>4.3595385815714912e-05</v>
+        <v>5.1959033689820683e-05</v>
       </c>
       <c r="AU20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AV20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AW20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AX20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AY20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="AZ20">
-        <v>2.2205335947888307e-14</v>
+        <v>2.2205793739593132e-14</v>
       </c>
       <c r="BA20">
-        <v>2.3550610225442188e-08</v>
+        <v>3.788417560055441e-08</v>
       </c>
       <c r="BB20">
         <v>35</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="C21">
-        <v>0.00097606136078216301</v>
+        <v>0.012963567178711661</v>
       </c>
       <c r="D21">
-        <v>0.00092399719561615183</v>
+        <v>0.00094186406335777057</v>
       </c>
       <c r="E21">
-        <v>1.0044783976624524e-06</v>
+        <v>3.1156440599201939e-06</v>
       </c>
       <c r="F21">
-        <v>0.99747203712548749</v>
+        <v>0.98445318813327454</v>
       </c>
       <c r="G21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="H21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="I21">
-        <v>0.00052635604926599727</v>
+        <v>0.0014556188338425272</v>
       </c>
       <c r="J21">
-        <v>6.7751204985669032e-06</v>
+        <v>4.364927386067514e-06</v>
       </c>
       <c r="K21">
-        <v>1.7072576363305475e-08</v>
+        <v>3.1849698892595207e-08</v>
       </c>
       <c r="L21">
-        <v>8.5875269718552933e-06</v>
+        <v>8.5850504514462349e-06</v>
       </c>
       <c r="M21">
-        <v>3.2987910603400737e-08</v>
+        <v>6.6143641125732043e-08</v>
       </c>
       <c r="N21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="O21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="P21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="Q21">
-        <v>1.5523917524670582e-11</v>
+        <v>6.8854817341039213e-10</v>
       </c>
       <c r="R21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="S21">
-        <v>1.093241852124853e-08</v>
+        <v>1.3057644281132014e-09</v>
       </c>
       <c r="T21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="U21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="V21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="W21">
-        <v>2.6487831587088538e-09</v>
+        <v>2.7971687116189964e-09</v>
       </c>
       <c r="X21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="Y21">
-        <v>2.4129835741183631e-06</v>
+        <v>1.0991395020579037e-05</v>
       </c>
       <c r="Z21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AA21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AB21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AC21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AD21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AE21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AF21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AG21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AH21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AI21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AJ21">
-        <v>1.3198032282014521e-09</v>
+        <v>3.5762033237084899e-08</v>
       </c>
       <c r="AK21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AL21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AM21">
-        <v>7.5192211396490706e-10</v>
+        <v>2.9037857376782583e-09</v>
       </c>
       <c r="AN21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AO21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AP21">
-        <v>1.6379010446207439e-06</v>
+        <v>9.6952838091667073e-08</v>
       </c>
       <c r="AQ21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AR21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AS21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AT21">
-        <v>8.1064528100183194e-05</v>
+        <v>0.00015846636356217847</v>
       </c>
       <c r="AU21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AV21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AW21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AX21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AY21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="AZ21">
-        <v>2.2320885098849748e-14</v>
+        <v>2.2203964690644721e-14</v>
       </c>
       <c r="BA21">
-        <v>5.644702573072835e-13</v>
+        <v>6.0998830530627136e-12</v>
       </c>
       <c r="BB21">
         <v>5</v>
